--- a/data/trans_orig/P1411-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1411-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7C78BB1-9A44-4C04-9E45-A8611E403EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16EBCB7C-8EEB-40A3-ABCD-477F767E669A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DA6CEF53-A249-46E4-8278-B489C4A3D3D9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{964D6793-6C2A-4F8D-8A59-F3AE05B994E0}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="228">
   <si>
     <t>Población con diagnóstico de infarto de miocardio en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -133,246 +133,267 @@
     <t>35/44</t>
   </si>
   <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>0,46%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
     <t>98,44%</t>
   </si>
   <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
@@ -391,16 +412,13 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>0,77%</t>
+    <t>0,99%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
+    <t>99,01%</t>
   </si>
   <si>
     <t>99,67%</t>
@@ -409,228 +427,246 @@
     <t>99,92%</t>
   </si>
   <si>
-    <t>99,61%</t>
+    <t>99,65%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
+    <t>0,7%</t>
+  </si>
+  <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,7%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de infarto de miocardio en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de infarto de miocardio en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
     <t>99,58%</t>
   </si>
   <si>
@@ -641,9 +677,6 @@
   </si>
   <si>
     <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
   </si>
   <si>
     <t>99,77%</t>
@@ -1100,7 +1133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5356E3-9FE8-4227-9A4A-B63C01EF6319}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA220777-DC36-4E1F-997D-BA99885D8AF5}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1708,7 +1741,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -1723,7 +1756,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1741,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>18</v>
@@ -1756,7 +1789,7 @@
         <v>29</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -1771,7 +1804,7 @@
         <v>29</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>18</v>
@@ -1830,7 +1863,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1848,7 +1881,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1863,7 +1896,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1878,7 +1911,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1893,13 +1926,13 @@
         <v>4266</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1908,13 +1941,13 @@
         <v>3423</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -1923,13 +1956,13 @@
         <v>7689</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1944,13 +1977,13 @@
         <v>610351</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H18" s="7">
         <v>535</v>
@@ -1959,13 +1992,13 @@
         <v>610841</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M18" s="7">
         <v>1079</v>
@@ -1974,13 +2007,13 @@
         <v>1221191</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2036,7 +2069,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2054,7 +2087,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2069,7 +2102,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2084,7 +2117,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2099,13 +2132,13 @@
         <v>17625</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -2114,13 +2147,13 @@
         <v>6414</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M21" s="7">
         <v>23</v>
@@ -2129,13 +2162,13 @@
         <v>24039</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2150,13 +2183,13 @@
         <v>411804</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H22" s="7">
         <v>400</v>
@@ -2165,13 +2198,13 @@
         <v>441386</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M22" s="7">
         <v>776</v>
@@ -2180,13 +2213,13 @@
         <v>853190</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,7 +2275,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2260,7 +2293,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2275,7 +2308,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2290,7 +2323,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2305,13 +2338,13 @@
         <v>47705</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -2320,13 +2353,13 @@
         <v>27294</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M25" s="7">
         <v>68</v>
@@ -2335,13 +2368,13 @@
         <v>74999</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2356,13 +2389,13 @@
         <v>511932</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H26" s="7">
         <v>667</v>
@@ -2371,13 +2404,13 @@
         <v>714498</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M26" s="7">
         <v>1129</v>
@@ -2386,13 +2419,13 @@
         <v>1226430</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2466,7 +2499,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2481,7 +2514,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2496,7 +2529,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,13 +2544,13 @@
         <v>70636</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H29" s="7">
         <v>36</v>
@@ -2526,13 +2559,13 @@
         <v>38176</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="M29" s="7">
         <v>100</v>
@@ -2541,13 +2574,13 @@
         <v>108813</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2562,13 +2595,13 @@
         <v>3356143</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H30" s="7">
         <v>3259</v>
@@ -2577,13 +2610,13 @@
         <v>3515740</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="M30" s="7">
         <v>6404</v>
@@ -2592,13 +2625,13 @@
         <v>6871881</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,7 +2687,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2676,7 +2709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF76978-920A-494A-9598-13EF7CE989AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8829D77-89CC-48C9-AC18-564CD24E1CF0}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2693,7 +2726,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2806,7 +2839,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2821,7 +2854,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2836,7 +2869,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2857,7 +2890,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2872,7 +2905,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2887,7 +2920,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,7 +2938,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>20</v>
@@ -2920,7 +2953,7 @@
         <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>20</v>
@@ -2935,7 +2968,7 @@
         <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>20</v>
@@ -3027,7 +3060,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3042,7 +3075,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,7 +3096,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3078,7 +3111,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -3087,13 +3120,13 @@
         <v>898</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,7 +3144,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>18</v>
@@ -3126,7 +3159,7 @@
         <v>18</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>20</v>
@@ -3138,10 +3171,10 @@
         <v>1153142</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>18</v>
@@ -3218,7 +3251,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3269,7 +3302,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3278,13 +3311,13 @@
         <v>902</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3293,13 +3326,13 @@
         <v>1918</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,7 +3350,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>18</v>
@@ -3329,10 +3362,10 @@
         <v>660484</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -3344,10 +3377,10 @@
         <v>1328565</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>18</v>
@@ -3406,7 +3439,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3424,7 +3457,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3439,7 +3472,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3454,7 +3487,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3502,13 @@
         <v>9088</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -3484,13 +3517,13 @@
         <v>3974</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -3499,13 +3532,13 @@
         <v>13062</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,13 +3553,13 @@
         <v>636960</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H18" s="7">
         <v>598</v>
@@ -3535,10 +3568,10 @@
         <v>645103</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>29</v>
@@ -3547,16 +3580,16 @@
         <v>1172</v>
       </c>
       <c r="N18" s="7">
-        <v>1282063</v>
+        <v>1282064</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,7 +3631,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>20</v>
@@ -3612,7 +3645,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3645,7 +3678,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3675,13 +3708,13 @@
         <v>14040</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -3690,13 +3723,13 @@
         <v>2007</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M21" s="7">
         <v>15</v>
@@ -3705,13 +3738,13 @@
         <v>16047</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,13 +3759,13 @@
         <v>463878</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H22" s="7">
         <v>431</v>
@@ -3741,10 +3774,10 @@
         <v>494842</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>18</v>
@@ -3756,13 +3789,13 @@
         <v>958720</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,7 +3851,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3836,7 +3869,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3881,13 +3914,13 @@
         <v>41732</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -3896,13 +3929,13 @@
         <v>37668</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>76</v>
@@ -3911,13 +3944,13 @@
         <v>79400</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,13 +3965,13 @@
         <v>549596</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>623</v>
@@ -3947,13 +3980,13 @@
         <v>740263</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>1206</v>
@@ -3962,13 +3995,13 @@
         <v>1289859</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,7 +4075,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4057,7 +4090,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4072,7 +4105,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4120,13 @@
         <v>66775</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="H29" s="7">
         <v>39</v>
@@ -4102,13 +4135,13 @@
         <v>44551</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="M29" s="7">
         <v>106</v>
@@ -4117,13 +4150,13 @@
         <v>111325</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4171,13 @@
         <v>3327575</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="H30" s="7">
         <v>3299</v>
@@ -4153,13 +4186,13 @@
         <v>3499991</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="M30" s="7">
         <v>6463</v>
@@ -4168,13 +4201,13 @@
         <v>6827567</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4230,7 +4263,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4252,7 +4285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9802452-34A9-45BA-B20B-5FFD513BD41C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA95F171-B72A-4198-9960-7C5078BFD303}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4269,7 +4302,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4379,7 +4412,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>20</v>
@@ -4394,7 +4427,7 @@
         <v>18</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>20</v>
@@ -4409,7 +4442,7 @@
         <v>18</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>20</v>
@@ -4433,7 +4466,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4448,7 +4481,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4463,7 +4496,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>127</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,7 +4517,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4499,7 +4532,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4514,7 +4547,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>127</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,7 +4618,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>20</v>
@@ -4600,7 +4633,7 @@
         <v>18</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>20</v>
@@ -4615,7 +4648,7 @@
         <v>18</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>20</v>
@@ -4639,7 +4672,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4654,7 +4687,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4669,7 +4702,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,7 +4723,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4705,7 +4738,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4720,7 +4753,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,7 +4824,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>201</v>
+        <v>129</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>20</v>
@@ -4806,7 +4839,7 @@
         <v>18</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>20</v>
@@ -4821,7 +4854,7 @@
         <v>18</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>20</v>
@@ -4845,7 +4878,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4860,7 +4893,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4875,7 +4908,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,7 +4929,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4911,7 +4944,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4926,7 +4959,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4982,7 +5015,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5012,7 +5045,7 @@
         <v>18</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>20</v>
@@ -5027,7 +5060,7 @@
         <v>18</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>20</v>
@@ -5066,7 +5099,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5081,7 +5114,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,7 +5150,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5132,7 +5165,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,7 +5221,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5218,7 +5251,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>20</v>
@@ -5233,7 +5266,7 @@
         <v>18</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>20</v>
@@ -5272,7 +5305,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5287,7 +5320,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,7 +5356,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5338,7 +5371,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,7 +5427,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5409,7 +5442,7 @@
         <v>18</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>20</v>
@@ -5424,7 +5457,7 @@
         <v>18</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>20</v>
@@ -5439,7 +5472,7 @@
         <v>18</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>20</v>
@@ -5463,7 +5496,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5478,7 +5511,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5493,7 +5526,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,7 +5547,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5529,7 +5562,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5544,7 +5577,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,7 +5648,7 @@
         <v>18</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>20</v>
@@ -5630,7 +5663,7 @@
         <v>18</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>20</v>
@@ -5645,7 +5678,7 @@
         <v>18</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>20</v>
@@ -5669,7 +5702,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5684,7 +5717,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -5699,7 +5732,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5720,7 +5753,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5735,7 +5768,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -5750,7 +5783,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,7 +5839,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1411-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1411-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16EBCB7C-8EEB-40A3-ABCD-477F767E669A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BC92676-9FCA-4867-9B5A-1F947A2999B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{964D6793-6C2A-4F8D-8A59-F3AE05B994E0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CA534B7A-617D-45D4-B1A7-60BC25CD55B8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="229">
   <si>
     <t>Población con diagnóstico de infarto de miocardio en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -133,22 +133,22 @@
     <t>35/44</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -166,517 +166,520 @@
     <t>0,69%</t>
   </si>
   <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de infarto de miocardio en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
   </si>
   <si>
     <t>98,31%</t>
   </si>
   <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
   </si>
   <si>
     <t>98,69%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de infarto de miocardio en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
+    <t>Población con diagnóstico de infarto de miocardio en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
   </si>
   <si>
     <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de infarto de miocardio en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
   </si>
   <si>
     <t>99,77%</t>
@@ -1133,7 +1136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA220777-DC36-4E1F-997D-BA99885D8AF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8667E1F-9462-4B1E-9BF5-DCC3890AA346}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2087,37 +2090,37 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2132,13 +2135,13 @@
         <v>17625</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -2147,13 +2150,13 @@
         <v>6414</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M21" s="7">
         <v>23</v>
@@ -2162,13 +2165,13 @@
         <v>24039</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,13 +2186,13 @@
         <v>411804</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H22" s="7">
         <v>400</v>
@@ -2198,13 +2201,13 @@
         <v>441386</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M22" s="7">
         <v>776</v>
@@ -2213,13 +2216,13 @@
         <v>853190</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,7 +2278,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2293,37 +2296,37 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,13 +2341,13 @@
         <v>47705</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -2353,13 +2356,13 @@
         <v>27294</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M25" s="7">
         <v>68</v>
@@ -2368,13 +2371,13 @@
         <v>74999</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,13 +2392,13 @@
         <v>511932</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H26" s="7">
         <v>667</v>
@@ -2404,13 +2407,13 @@
         <v>714498</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M26" s="7">
         <v>1129</v>
@@ -2419,13 +2422,13 @@
         <v>1226430</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,7 +2502,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2514,7 +2517,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2529,7 +2532,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2547,13 @@
         <v>70636</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H29" s="7">
         <v>36</v>
@@ -2559,13 +2562,13 @@
         <v>38176</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M29" s="7">
         <v>100</v>
@@ -2574,13 +2577,13 @@
         <v>108813</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2598,13 @@
         <v>3356143</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H30" s="7">
         <v>3259</v>
@@ -2610,13 +2613,13 @@
         <v>3515740</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M30" s="7">
         <v>6404</v>
@@ -2625,13 +2628,13 @@
         <v>6871881</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,7 +2690,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2709,7 +2712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8829D77-89CC-48C9-AC18-564CD24E1CF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB11AF88-3080-414E-8D44-419031F01A72}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2726,7 +2729,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2839,37 +2842,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,37 +2893,37 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,7 +2941,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>20</v>
@@ -2953,7 +2956,7 @@
         <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>20</v>
@@ -2968,7 +2971,7 @@
         <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>20</v>
@@ -3060,7 +3063,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3096,7 +3099,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3111,7 +3114,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -3120,13 +3123,13 @@
         <v>898</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,7 +3147,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>18</v>
@@ -3159,7 +3162,7 @@
         <v>18</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>20</v>
@@ -3171,10 +3174,10 @@
         <v>1153142</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>18</v>
@@ -3251,7 +3254,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3302,7 +3305,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3311,13 +3314,13 @@
         <v>902</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3326,13 +3329,13 @@
         <v>1918</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,7 +3353,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>18</v>
@@ -3362,10 +3365,10 @@
         <v>660484</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -3377,10 +3380,10 @@
         <v>1328565</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>18</v>
@@ -3457,7 +3460,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3472,7 +3475,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3487,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3505,13 @@
         <v>9088</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -3517,13 +3520,13 @@
         <v>3974</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -3532,13 +3535,13 @@
         <v>13062</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,13 +3556,13 @@
         <v>636960</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H18" s="7">
         <v>598</v>
@@ -3568,19 +3571,19 @@
         <v>645103</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="M18" s="7">
         <v>1172</v>
       </c>
       <c r="N18" s="7">
-        <v>1282064</v>
+        <v>1282063</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>150</v>
@@ -3631,7 +3634,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>20</v>
@@ -3744,7 +3747,7 @@
         <v>159</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,13 +3762,13 @@
         <v>463878</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H22" s="7">
         <v>431</v>
@@ -3774,10 +3777,10 @@
         <v>494842</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>18</v>
@@ -3789,13 +3792,13 @@
         <v>958720</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,7 +3854,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3869,7 +3872,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3914,13 +3917,13 @@
         <v>41732</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -3929,13 +3932,13 @@
         <v>37668</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>76</v>
@@ -3944,13 +3947,13 @@
         <v>79400</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,13 +3968,13 @@
         <v>549596</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>623</v>
@@ -3980,13 +3983,13 @@
         <v>740263</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>1206</v>
@@ -3995,13 +3998,13 @@
         <v>1289859</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4075,7 +4078,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4090,7 +4093,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4105,7 +4108,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,13 +4123,13 @@
         <v>66775</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="H29" s="7">
         <v>39</v>
@@ -4135,13 +4138,13 @@
         <v>44551</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M29" s="7">
         <v>106</v>
@@ -4150,13 +4153,13 @@
         <v>111325</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4174,13 @@
         <v>3327575</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="G30" s="7" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="H30" s="7">
         <v>3299</v>
@@ -4263,7 +4266,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4285,7 +4288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA95F171-B72A-4198-9960-7C5078BFD303}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0409AB7-C7DA-4B98-92D9-B9A19DDDA646}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4824,7 +4827,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>20</v>
@@ -4839,7 +4842,7 @@
         <v>18</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>20</v>
@@ -4854,7 +4857,7 @@
         <v>18</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>20</v>
@@ -4893,7 +4896,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4908,7 +4911,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,7 +4947,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4959,7 +4962,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,13 +5057,13 @@
         <v>1806</v>
       </c>
       <c r="N16" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>20</v>
@@ -5114,7 +5117,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,7 +5168,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,7 +5210,7 @@
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>20</v>
@@ -5251,7 +5254,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>20</v>
@@ -5266,7 +5269,7 @@
         <v>18</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>20</v>
@@ -5305,7 +5308,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5320,7 +5323,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,7 +5359,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5371,7 +5374,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,7 +5430,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5436,13 +5439,13 @@
         <v>1028</v>
       </c>
       <c r="D24" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>20</v>
@@ -5457,7 +5460,7 @@
         <v>18</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>20</v>
@@ -5472,7 +5475,7 @@
         <v>18</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>20</v>
@@ -5496,7 +5499,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5511,7 +5514,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5526,7 +5529,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,7 +5550,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5562,7 +5565,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5577,7 +5580,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,7 +5592,7 @@
         <v>1028</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>20</v>
@@ -5648,7 +5651,7 @@
         <v>18</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>20</v>
@@ -5663,7 +5666,7 @@
         <v>18</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>20</v>
@@ -5672,13 +5675,13 @@
         <v>8743</v>
       </c>
       <c r="N28" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>20</v>
@@ -5702,7 +5705,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5717,7 +5720,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -5732,7 +5735,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,7 +5756,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5768,7 +5771,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -5783,7 +5786,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,7 +5828,7 @@
         <v>8743</v>
       </c>
       <c r="N31" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>20</v>
@@ -5839,7 +5842,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1411-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1411-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84A55144-F63B-4FD8-A847-8AFCC04687F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3637969-42A0-4031-BBE9-9E34898A4188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{53F7FFEE-A8C5-4D90-B2C0-A579E90B6BB3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F4EA3D02-AE5A-47E6-8664-BE7A7A4C3022}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="218">
   <si>
     <t>Población con diagnóstico de infarto de miocardio en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -105,7 +105,7 @@
     <t>99,78%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,29%</t>
@@ -126,7 +126,7 @@
     <t>99,85%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,76%</t>
@@ -141,7 +141,7 @@
     <t>99,54%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,69%</t>
@@ -198,7 +198,7 @@
     <t>99,72%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>4,1%</t>
@@ -249,61 +249,118 @@
     <t>98,12%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
   </si>
   <si>
     <t>2,06%</t>
@@ -492,58 +549,106 @@
     <t>99,01%</t>
   </si>
   <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
   </si>
   <si>
     <t>1,97%</t>
@@ -997,8 +1102,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF16691-D17F-4FCF-9EAC-B96238BEFF16}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DBA6EC-A62D-4C79-B686-FFC06E56BD04}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1890,10 +1995,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D19" s="7">
-        <v>47705</v>
+        <v>15016</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>71</v>
@@ -1905,10 +2010,10 @@
         <v>73</v>
       </c>
       <c r="H19" s="7">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>27294</v>
+        <v>8707</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>74</v>
@@ -1920,10 +2025,10 @@
         <v>76</v>
       </c>
       <c r="M19" s="7">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="N19" s="7">
-        <v>74999</v>
+        <v>23722</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>77</v>
@@ -1941,10 +2046,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>462</v>
+        <v>269</v>
       </c>
       <c r="D20" s="7">
-        <v>511932</v>
+        <v>294770</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>80</v>
@@ -1956,10 +2061,10 @@
         <v>82</v>
       </c>
       <c r="H20" s="7">
-        <v>667</v>
+        <v>335</v>
       </c>
       <c r="I20" s="7">
-        <v>714498</v>
+        <v>345289</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>83</v>
@@ -1971,10 +2076,10 @@
         <v>85</v>
       </c>
       <c r="M20" s="7">
-        <v>1129</v>
+        <v>604</v>
       </c>
       <c r="N20" s="7">
-        <v>1226430</v>
+        <v>640060</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>86</v>
@@ -1992,10 +2097,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -2007,10 +2112,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>693</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>741792</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -2022,10 +2127,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1197</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1301429</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2039,55 +2144,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D22" s="7">
-        <v>70636</v>
+        <v>32689</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H22" s="7">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="I22" s="7">
-        <v>38176</v>
+        <v>18587</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M22" s="7">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="N22" s="7">
-        <v>108813</v>
+        <v>51277</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2096,49 +2201,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3145</v>
+        <v>193</v>
       </c>
       <c r="D23" s="7">
-        <v>3356143</v>
+        <v>217162</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H23" s="7">
-        <v>3259</v>
+        <v>332</v>
       </c>
       <c r="I23" s="7">
-        <v>3515740</v>
+        <v>369209</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="M23" s="7">
-        <v>6404</v>
+        <v>525</v>
       </c>
       <c r="N23" s="7">
-        <v>6871881</v>
+        <v>586370</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,63 +2252,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>349</v>
+      </c>
+      <c r="I24" s="7">
+        <v>387796</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>571</v>
+      </c>
+      <c r="N24" s="7">
+        <v>637647</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>64</v>
+      </c>
+      <c r="D25" s="7">
+        <v>70636</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" s="7">
+        <v>36</v>
+      </c>
+      <c r="I25" s="7">
+        <v>38176</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M25" s="7">
+        <v>100</v>
+      </c>
+      <c r="N25" s="7">
+        <v>108813</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3145</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3356143</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3259</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3515740</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6404</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6871881</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>3295</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3553916</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>6504</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6980694</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>101</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2216,8 +2477,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E312F9C1-3D43-4CEB-BF34-E667FBDEE26B}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66F7E26-62A6-411D-92DA-0FCF1BE17D56}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2233,7 +2494,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2346,7 +2607,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2361,7 +2622,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2376,7 +2637,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,7 +2655,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2409,7 +2670,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2424,7 +2685,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2501,7 +2762,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2516,7 +2777,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2525,13 +2786,13 @@
         <v>898</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,7 +2810,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -2564,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2576,10 +2837,10 @@
         <v>1153142</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2665,13 +2926,13 @@
         <v>902</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2680,13 +2941,13 @@
         <v>1918</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,10 +2977,10 @@
         <v>660484</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -2731,10 +2992,10 @@
         <v>1328565</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -2805,13 +3066,13 @@
         <v>9088</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -2820,13 +3081,13 @@
         <v>3974</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -2835,13 +3096,13 @@
         <v>13062</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>38</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,13 +3117,13 @@
         <v>636960</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
         <v>598</v>
@@ -2871,10 +3132,10 @@
         <v>645103</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>28</v>
@@ -2886,10 +3147,10 @@
         <v>1282063</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>47</v>
@@ -2960,13 +3221,13 @@
         <v>14040</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2975,13 +3236,13 @@
         <v>2007</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -2990,13 +3251,13 @@
         <v>16047</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +3272,13 @@
         <v>463878</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H17" s="7">
         <v>431</v>
@@ -3026,10 +3287,10 @@
         <v>494842</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -3041,13 +3302,13 @@
         <v>958720</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,49 +3370,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D19" s="7">
-        <v>41732</v>
+        <v>21853</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="H19" s="7">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I19" s="7">
-        <v>37668</v>
+        <v>15451</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="M19" s="7">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="N19" s="7">
-        <v>79400</v>
+        <v>37304</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,49 +3421,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>583</v>
+        <v>305</v>
       </c>
       <c r="D20" s="7">
-        <v>549596</v>
+        <v>312477</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="H20" s="7">
-        <v>623</v>
+        <v>340</v>
       </c>
       <c r="I20" s="7">
-        <v>740263</v>
+        <v>362311</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="M20" s="7">
-        <v>1206</v>
+        <v>645</v>
       </c>
       <c r="N20" s="7">
-        <v>1289859</v>
+        <v>674788</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,10 +3472,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -3226,10 +3487,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -3241,10 +3502,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -3258,55 +3519,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D22" s="7">
-        <v>66775</v>
+        <v>19879</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="H22" s="7">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I22" s="7">
-        <v>44551</v>
+        <v>22217</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="M22" s="7">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="N22" s="7">
-        <v>111325</v>
+        <v>42096</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,49 +3576,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3164</v>
+        <v>278</v>
       </c>
       <c r="D23" s="7">
-        <v>3327575</v>
+        <v>237119</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="H23" s="7">
-        <v>3299</v>
+        <v>283</v>
       </c>
       <c r="I23" s="7">
-        <v>3499991</v>
+        <v>377952</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="M23" s="7">
-        <v>6463</v>
+        <v>561</v>
       </c>
       <c r="N23" s="7">
-        <v>6827567</v>
+        <v>615071</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,63 +3627,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>67</v>
+      </c>
+      <c r="D25" s="7">
+        <v>66775</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H25" s="7">
+        <v>39</v>
+      </c>
+      <c r="I25" s="7">
+        <v>44551</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M25" s="7">
+        <v>106</v>
+      </c>
+      <c r="N25" s="7">
+        <v>111325</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3164</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3327575</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3299</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3499991</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6463</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6827567</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>101</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
